--- a/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
+++ b/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="183">
   <si>
     <t>02 hrs 45 mins</t>
   </si>
@@ -516,6 +516,60 @@
   </si>
   <si>
     <t>₹ 17,003</t>
+  </si>
+  <si>
+    <t>₹ 7,766</t>
+  </si>
+  <si>
+    <t>IndiGo |6E-7243</t>
+  </si>
+  <si>
+    <t>07 hrs 55 mins</t>
+  </si>
+  <si>
+    <t>₹ 8,685</t>
+  </si>
+  <si>
+    <t>IndiGo |6E-513</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>09 hrs</t>
+  </si>
+  <si>
+    <t>₹ 9,498</t>
+  </si>
+  <si>
+    <t>₹ 9,550</t>
+  </si>
+  <si>
+    <t>₹ 10,620</t>
+  </si>
+  <si>
+    <t>11 hrs</t>
+  </si>
+  <si>
+    <t>₹ 11,163</t>
+  </si>
+  <si>
+    <t>IndiGo |6E-624</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
+    <t>08 hrs 10 mins</t>
+  </si>
+  <si>
+    <t>₹ 12,674</t>
+  </si>
+  <si>
+    <t>₹ 12,936</t>
+  </si>
+  <si>
+    <t>₹ 13,643</t>
   </si>
 </sst>
 </file>
@@ -922,13 +976,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -936,10 +990,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -950,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -964,13 +1018,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
@@ -978,44 +1032,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +1083,7 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -1043,21 +1097,21 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
@@ -1068,38 +1122,38 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -1113,7 +1167,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
